--- a/BI/IoT/MonthlyProjectStatusReport _IoT_May2016.xlsx
+++ b/BI/IoT/MonthlyProjectStatusReport _IoT_May2016.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="89">
   <si>
     <t>Project ID</t>
   </si>
@@ -61,12 +61,6 @@
     <t>Critical Risks</t>
   </si>
   <si>
-    <t>&lt;Count of open risks&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Refer critical risks from PP&gt;</t>
-  </si>
-  <si>
     <t>Critical Issues</t>
   </si>
   <si>
@@ -127,13 +121,7 @@
     <t>Risks</t>
   </si>
   <si>
-    <t>All Risks are within control</t>
-  </si>
-  <si>
     <t>Issues</t>
-  </si>
-  <si>
-    <t>Project issues need attention</t>
   </si>
   <si>
     <t>Metrics</t>
@@ -249,9 +237,6 @@
   </si>
   <si>
     <t>Yet to Start</t>
-  </si>
-  <si>
-    <t>Innovation Lab</t>
   </si>
   <si>
     <t>IoT &amp;  Analytics Offering</t>
@@ -282,9 +267,6 @@
   </si>
   <si>
     <t>IoT  Offering Monthly Status Report - May 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <r>
@@ -401,6 +383,24 @@
       <t xml:space="preserve">Due to insufficient data performing time series analysis for fact based pricing is now challenging and so the task has been dropped.
 </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Balaji </t>
+  </si>
+  <si>
+    <t>Parthiban</t>
+  </si>
+  <si>
+    <t>PRJ-4700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Finalization is long pending, QMG process not initiated </t>
+  </si>
+  <si>
+    <t>Project Finalization to OEG is long pending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMG process is not initiated more than 2 months due to penging of project finalization </t>
   </si>
 </sst>
 </file>
@@ -525,12 +525,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -541,8 +535,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="64">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -1279,32 +1279,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1324,7 +1298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1332,8 +1306,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1358,8 +1330,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
@@ -1374,16 +1346,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1400,6 +1372,186 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1409,197 +1561,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1981,12 +1960,12 @@
         <c:gapWidth val="55"/>
         <c:gapDepth val="55"/>
         <c:shape val="pyramid"/>
-        <c:axId val="241758976"/>
-        <c:axId val="241760512"/>
+        <c:axId val="95468544"/>
+        <c:axId val="95478528"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="241758976"/>
+        <c:axId val="95468544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1995,7 +1974,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="241760512"/>
+        <c:crossAx val="95478528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2003,7 +1982,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="241760512"/>
+        <c:axId val="95478528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2013,7 +1992,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="241758976"/>
+        <c:crossAx val="95468544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2075,7 +2054,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2410,12 +2388,12 @@
         <c:gapWidth val="55"/>
         <c:gapDepth val="55"/>
         <c:shape val="pyramid"/>
-        <c:axId val="242198400"/>
-        <c:axId val="242199936"/>
+        <c:axId val="96543104"/>
+        <c:axId val="96544640"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="242198400"/>
+        <c:axId val="96543104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2424,7 +2402,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242199936"/>
+        <c:crossAx val="96544640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2432,7 +2410,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="242199936"/>
+        <c:axId val="96544640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2442,14 +2420,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242198400"/>
+        <c:crossAx val="96543104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2903,8 +2880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:I32"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51:I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2918,718 +2895,726 @@
   <sheetData>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="93"/>
+      <c r="B4" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="88"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="14"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="113"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="105"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="113"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="105"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>78</v>
+      <c r="C8" s="22" t="s">
+        <v>73</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="113"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="105"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>74</v>
+      <c r="C9" s="21" t="s">
+        <v>70</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="113"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="105"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="24"/>
+      <c r="C10" s="22" t="s">
+        <v>84</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="113"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="105"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>79</v>
+      <c r="C11" s="21" t="s">
+        <v>74</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="113"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="105"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>77</v>
+      <c r="C12" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="113"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="105"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="44">
+      <c r="B13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="42">
         <v>42439</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="45">
+      <c r="B14" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="43">
         <v>42735</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="34"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="43"/>
+      <c r="C15" s="41">
+        <v>92525</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32"/>
     </row>
     <row r="16" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="116"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="108"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="110"/>
+      <c r="B18" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="102"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="111"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="110"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="102"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="111"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="110"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="102"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="111"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="110"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="102"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="111"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="110"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="102"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="14"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="56"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="51"/>
     </row>
     <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="87"/>
+      <c r="B25" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="74"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="88"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="90"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="77"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="88"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="90"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="77"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="88"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="90"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="77"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="88"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="90"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="77"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="88"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="90"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="77"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="88"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="90"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="77"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="88"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="90"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="77"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="53"/>
+      <c r="B33" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="111"/>
     </row>
     <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="103" t="s">
+      <c r="D34" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="104"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="99"/>
     </row>
     <row r="35" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="2"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="99"/>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="74" t="s">
+      <c r="C36" s="113">
+        <v>1</v>
+      </c>
+      <c r="D36" s="114" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="116"/>
+    </row>
+    <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="71"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="76"/>
-    </row>
-    <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="16" t="s">
+      <c r="C38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="107"/>
-    </row>
-    <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="76"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="16" t="s">
+      <c r="D38" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="E38" s="94"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="99"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="103" t="s">
+      <c r="C39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="104"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="17" t="s">
+      <c r="D39" s="69"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="71"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="74"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="76"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="16" t="s">
+      <c r="D40" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="104"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="99"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="13"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="14"/>
+      <c r="I41" s="12"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="101" t="s">
+      <c r="B42" s="96" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="90"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="11" t="s">
+      <c r="I42" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H42" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I42" s="18" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="47">
+      <c r="B43" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="45">
         <v>42613</v>
       </c>
-      <c r="H43" s="47">
+      <c r="H43" s="45">
         <v>42613</v>
       </c>
-      <c r="I43" s="48" t="s">
-        <v>76</v>
+      <c r="I43" s="46" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="49">
+      <c r="B44" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="47">
         <v>42521</v>
       </c>
-      <c r="H44" s="49">
+      <c r="H44" s="47">
         <v>42518</v>
       </c>
-      <c r="I44" s="50" t="s">
-        <v>75</v>
+      <c r="I44" s="48" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="47">
+      <c r="B45" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="45">
         <v>42521</v>
       </c>
-      <c r="H45" s="47">
+      <c r="H45" s="45">
         <v>42518</v>
       </c>
-      <c r="I45" s="48" t="s">
-        <v>75</v>
+      <c r="I45" s="46" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="49">
+      <c r="B46" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="47">
         <v>42531</v>
       </c>
-      <c r="H46" s="49">
+      <c r="H46" s="47">
         <v>42531</v>
       </c>
-      <c r="I46" s="50" t="s">
-        <v>85</v>
+      <c r="I46" s="48" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="13"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="14"/>
+      <c r="I47" s="12"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="84" t="s">
+      <c r="B48" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="95"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" s="90"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="90"/>
+      <c r="I48" s="91"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="100"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="94" t="s">
+      <c r="D49" s="29"/>
+      <c r="E49" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" s="93"/>
+      <c r="G49" s="63">
+        <v>0</v>
+      </c>
+      <c r="H49" s="64"/>
+      <c r="I49" s="65"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="29"/>
+      <c r="E50" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" s="23"/>
+      <c r="G50" s="57">
+        <v>100</v>
+      </c>
+      <c r="H50" s="58"/>
+      <c r="I50" s="59"/>
+    </row>
+    <row r="51" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B51" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="117" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="29"/>
+      <c r="E51" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" s="94"/>
+      <c r="G51" s="60">
+        <v>100</v>
+      </c>
+      <c r="H51" s="61"/>
+      <c r="I51" s="62"/>
+    </row>
+    <row r="52" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="29"/>
+      <c r="E52" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F48" s="95"/>
-      <c r="G48" s="95"/>
-      <c r="H48" s="95"/>
-      <c r="I48" s="96"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="97" t="s">
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="53"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="11"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F49" s="98"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="70"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="29" t="s">
+      <c r="F53" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G53" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F50" s="25"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="63"/>
-      <c r="I50" s="64"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="99" t="s">
+      <c r="H53" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F51" s="99"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="66"/>
-      <c r="I51" s="67"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="58"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="13"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="30" t="s">
+      <c r="I53" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F53" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I53" s="19" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="13"/>
+      <c r="B54" s="11"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="28"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="26"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="84" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="58"/>
+      <c r="B55" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="53"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" s="81"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="82"/>
-      <c r="I56" s="83"/>
+      <c r="B56" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="82"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="84"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" s="78"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="75"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="79"/>
+      <c r="B57" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="79"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="80"/>
     </row>
     <row r="58" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="20"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="22"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -3640,7 +3625,6 @@
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B42:F42"/>
     <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D35:I35"/>
     <mergeCell ref="D36:I36"/>
     <mergeCell ref="D38:I38"/>
     <mergeCell ref="D39:I39"/>
@@ -3648,12 +3632,12 @@
     <mergeCell ref="B18:I22"/>
     <mergeCell ref="G6:I12"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B33:I33"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="D57:I57"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:I56"/>
     <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B33:I33"/>
     <mergeCell ref="B24:I24"/>
     <mergeCell ref="E52:I52"/>
     <mergeCell ref="B43:F43"/>
@@ -3665,6 +3649,7 @@
     <mergeCell ref="D37:I37"/>
     <mergeCell ref="B46:F46"/>
     <mergeCell ref="B25:I32"/>
+    <mergeCell ref="D35:I35"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
@@ -3697,122 +3682,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
+      <c r="A1" s="112" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="46"/>
+        <v>61</v>
+      </c>
+      <c r="D9" s="44"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3839,128 +3824,128 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E3" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>70</v>
+      <c r="E3" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="35"/>
-      <c r="E4" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="39">
+      <c r="A4" s="34"/>
+      <c r="B4" s="33"/>
+      <c r="E4" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="37">
         <v>3</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="38">
         <f>F4/(SUM($F$4:$F$12))</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="35"/>
-      <c r="E5" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="39">
+      <c r="A5" s="34"/>
+      <c r="B5" s="33"/>
+      <c r="E5" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="37">
         <v>0</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="38">
         <f t="shared" ref="G5:G11" si="0">F5/(SUM($F$4:$F$12))</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="35"/>
-      <c r="E6" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="39">
+      <c r="A6" s="34"/>
+      <c r="B6" s="33"/>
+      <c r="E6" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="37">
         <v>0</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="35"/>
-      <c r="E7" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="39">
+      <c r="A7" s="34"/>
+      <c r="B7" s="33"/>
+      <c r="E7" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="37">
         <v>1</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="38">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="35"/>
-      <c r="E8" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="39">
+      <c r="A8" s="34"/>
+      <c r="B8" s="33"/>
+      <c r="E8" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="37">
         <v>0</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="35"/>
-      <c r="E9" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="39">
+      <c r="A9" s="34"/>
+      <c r="B9" s="33"/>
+      <c r="E9" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="37">
         <v>0</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="35"/>
-      <c r="E10" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="39">
+      <c r="A10" s="34"/>
+      <c r="B10" s="33"/>
+      <c r="E10" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="37">
         <v>0</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="35"/>
-      <c r="E11" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40">
+      <c r="A11" s="34"/>
+      <c r="B11" s="33"/>
+      <c r="E11" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E12" s="38"/>
+      <c r="E12" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
